--- a/Test Data Driven/AI-Generated/TC12-Purchase Phone and Complete Checkout Process.xlsx
+++ b/Test Data Driven/AI-Generated/TC12-Purchase Phone and Complete Checkout Process.xlsx
@@ -446,12 +446,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="72" customWidth="1" min="1" max="1"/>
+    <col width="89" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="29" customWidth="1" min="3" max="3"/>
-    <col width="31" customWidth="1" min="4" max="4"/>
-    <col width="38" customWidth="1" min="5" max="5"/>
-    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="31" customWidth="1" min="3" max="3"/>
+    <col width="33" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+    <col width="42" customWidth="1" min="6" max="6"/>
     <col width="90" customWidth="1" min="7" max="7"/>
     <col width="45" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
@@ -470,22 +470,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>label_productAttributes_for</t>
+          <t>label_storageColorOptions_for</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>label_productAttributes_for_1</t>
+          <t>label_storageColorOptions_for_1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>label_productAttributes_internalText</t>
+          <t>label_storageColorOptions_internalText</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>label_productAttributes_internalText_1</t>
+          <t>label_storageColorOptions_internalText_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -507,7 +507,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/fillShippingAddressAndProceed-test-data</t>
+          <t>Data Files/AI-Generated/Common/fillShippingAddressDetailsAndContinueToPayment-test-data</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
